--- a/REGULAR/OJT/NEW DONE/DIMAPILIS, DENNIS C..xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMAPILIS, DENNIS C..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khym Espino\OneDrive\Documents\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F12A42A-836D-4311-99C8-6C40767FD772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="254">
   <si>
     <t>PERIOD</t>
   </si>
@@ -695,9 +688,6 @@
     <t>UT(1-6-31)</t>
   </si>
   <si>
-    <t>UT((0-6-35)</t>
-  </si>
-  <si>
     <t>UT(2-4-29)</t>
   </si>
   <si>
@@ -801,12 +791,18 @@
   </si>
   <si>
     <t>09/5,6/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>UT(0-6-35)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -3220,25 +3216,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K437" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K438" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3250,13 +3247,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3265,14 +3262,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3576,7 +3573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3586,7 +3583,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3594,39 +3591,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K437"/>
+  <dimension ref="A2:K438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2520" topLeftCell="A359" activePane="bottomLeft"/>
-      <selection activeCell="A6" sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="K416" sqref="K416"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2520" topLeftCell="A5" activePane="bottomLeft"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
+      <selection pane="bottomLeft" activeCell="E289" sqref="E289"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
@@ -3634,7 +3631,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
@@ -3644,7 +3641,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3662,12 +3659,12 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
@@ -3682,7 +3679,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3690,7 +3687,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3703,7 +3700,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3720,7 +3717,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3755,7 +3752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3764,7 +3761,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>119.08999999999995</v>
+        <v>129.08999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3774,12 +3771,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>234.375</v>
+        <v>242.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3801,25 +3798,27 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35627</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>0.625</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.625</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35643</v>
       </c>
@@ -3839,7 +3838,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>35674</v>
@@ -3860,7 +3859,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f>EDATE(A13,1)</f>
         <v>35704</v>
@@ -3881,7 +3880,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" ref="A15:A16" si="0">EDATE(A14,1)</f>
         <v>35735</v>
@@ -3902,7 +3901,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -3914,7 +3913,7 @@
       <c r="D16" s="43"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="42">
+      <c r="G16" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -3923,7 +3922,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -3941,7 +3940,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>35796</v>
@@ -3962,7 +3961,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>35827</v>
@@ -3983,7 +3982,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" ref="A20:A27" si="1">EDATE(A19,1)</f>
         <v>35855</v>
@@ -4004,7 +4003,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -4029,7 +4028,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -4050,7 +4049,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -4071,7 +4070,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -4096,7 +4095,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -4121,7 +4120,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -4146,7 +4145,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -4171,7 +4170,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f>EDATE(A27,1)</f>
         <v>36100</v>
@@ -4198,7 +4197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>51</v>
@@ -4209,13 +4208,16 @@
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A28,1)</f>
         <v>36130</v>
@@ -4240,7 +4242,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>44</v>
       </c>
@@ -4258,7 +4260,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f>EDATE(A30,1)</f>
         <v>36161</v>
@@ -4283,7 +4285,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A32,1)</f>
         <v>36192</v>
@@ -4308,7 +4310,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" ref="A34:A44" si="2">EDATE(A33,1)</f>
         <v>36220</v>
@@ -4333,7 +4335,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -4358,7 +4360,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="2"/>
         <v>36281</v>
@@ -4383,7 +4385,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>66</v>
@@ -4392,7 +4394,10 @@
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13"/>
+      <c r="G37" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H37" s="39"/>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
@@ -4400,7 +4405,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f>EDATE(A36,1)</f>
         <v>36312</v>
@@ -4425,7 +4430,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>36342</v>
@@ -4452,7 +4457,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>62</v>
@@ -4463,13 +4468,16 @@
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="13"/>
+      <c r="G40" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f>EDATE(A39,1)</f>
         <v>36373</v>
@@ -4494,7 +4502,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>36404</v>
@@ -4519,7 +4527,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -4540,7 +4548,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>36465</v>
@@ -4567,14 +4575,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13"/>
+      <c r="G45" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
@@ -4582,7 +4593,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f>EDATE(A44,1)</f>
         <v>36495</v>
@@ -4609,7 +4620,7 @@
         <v>36515</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>61</v>
@@ -4618,7 +4629,10 @@
       <c r="D47" s="39"/>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13"/>
+      <c r="G47" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H47" s="39">
         <v>2</v>
       </c>
@@ -4628,7 +4642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>73</v>
@@ -4639,13 +4653,16 @@
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13"/>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>46</v>
@@ -4656,13 +4673,16 @@
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13"/>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>54</v>
       </c>
@@ -4680,7 +4700,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f>EDATE(A46,1)</f>
         <v>36526</v>
@@ -4705,7 +4725,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>36557</v>
@@ -4730,7 +4750,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" ref="A53:A64" si="3">EDATE(A52,1)</f>
         <v>36586</v>
@@ -4755,7 +4775,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>36617</v>
@@ -4782,7 +4802,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>66</v>
@@ -4791,7 +4811,10 @@
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13"/>
+      <c r="G55" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
@@ -4799,7 +4822,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>80</v>
@@ -4810,13 +4833,16 @@
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13"/>
+      <c r="G56" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f>EDATE(A54,1)</f>
         <v>36647</v>
@@ -4841,7 +4867,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -4866,7 +4892,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -4893,7 +4919,7 @@
         <v>36725</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>82</v>
@@ -4904,13 +4930,16 @@
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13"/>
+      <c r="G60" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f>EDATE(A59,1)</f>
         <v>36739</v>
@@ -4937,7 +4966,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>83</v>
@@ -4948,13 +4977,16 @@
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13"/>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36770</v>
@@ -4979,7 +5011,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>36800</v>
@@ -5006,7 +5038,7 @@
         <v>36801</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>85</v>
@@ -5017,13 +5049,16 @@
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13"/>
+      <c r="G65" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36831</v>
@@ -5050,7 +5085,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>81</v>
@@ -5061,13 +5096,16 @@
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13"/>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A66,1)</f>
         <v>36861</v>
@@ -5094,7 +5132,7 @@
         <v>36868</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>61</v>
@@ -5103,7 +5141,10 @@
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="13"/>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H69" s="39">
         <v>2</v>
       </c>
@@ -5113,7 +5154,7 @@
         <v>36879</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>61</v>
@@ -5122,7 +5163,10 @@
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13"/>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H70" s="39">
         <v>2</v>
       </c>
@@ -5132,7 +5176,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>87</v>
@@ -5143,13 +5187,16 @@
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13"/>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>72</v>
       </c>
@@ -5158,13 +5205,16 @@
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13"/>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A68,1)</f>
         <v>36892</v>
@@ -5189,7 +5239,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f>EDATE(A73,1)</f>
         <v>36923</v>
@@ -5210,7 +5260,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" ref="A75:A84" si="4">EDATE(A74,1)</f>
         <v>36951</v>
@@ -5231,7 +5281,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f t="shared" si="4"/>
         <v>36982</v>
@@ -5252,7 +5302,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" si="4"/>
         <v>37012</v>
@@ -5279,7 +5329,7 @@
         <v>37015</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>66</v>
@@ -5288,7 +5338,10 @@
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13"/>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
@@ -5296,7 +5349,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f>EDATE(A77,1)</f>
         <v>37043</v>
@@ -5317,7 +5370,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -5338,7 +5391,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>37104</v>
@@ -5365,7 +5418,7 @@
         <v>37127</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f t="shared" si="4"/>
         <v>37135</v>
@@ -5386,7 +5439,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f t="shared" si="4"/>
         <v>37165</v>
@@ -5411,7 +5464,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>37196</v>
@@ -5438,7 +5491,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>65</v>
@@ -5447,7 +5500,10 @@
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13"/>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H85" s="39">
         <v>1</v>
       </c>
@@ -5457,7 +5513,7 @@
         <v>37211</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>65</v>
@@ -5466,7 +5522,10 @@
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13"/>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H86" s="39">
         <v>1</v>
       </c>
@@ -5476,7 +5535,7 @@
         <v>40874</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>84</v>
@@ -5487,13 +5546,16 @@
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13"/>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A84,1)</f>
         <v>37226</v>
@@ -5518,7 +5580,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>73</v>
@@ -5529,13 +5591,16 @@
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13"/>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>91</v>
       </c>
@@ -5553,7 +5618,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f>EDATE(A88,1)</f>
         <v>37257</v>
@@ -5578,7 +5643,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A91,1)</f>
         <v>37288</v>
@@ -5605,7 +5670,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>101</v>
@@ -5616,7 +5681,10 @@
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13"/>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
@@ -5624,7 +5692,7 @@
         <v>37337</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>103</v>
@@ -5635,13 +5703,16 @@
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13"/>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f>EDATE(A92,1)</f>
         <v>37316</v>
@@ -5666,7 +5737,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>65</v>
@@ -5675,7 +5746,10 @@
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13"/>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H96" s="39">
         <v>1</v>
       </c>
@@ -5685,7 +5759,7 @@
         <v>37349</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>37347</v>
@@ -5710,7 +5784,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>66</v>
@@ -5719,7 +5793,10 @@
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13"/>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
@@ -5727,7 +5804,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>37377</v>
@@ -5752,7 +5829,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" ref="A100:A107" si="5">EDATE(A99,1)</f>
         <v>37408</v>
@@ -5773,7 +5850,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -5794,7 +5871,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -5821,7 +5898,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>65</v>
@@ -5830,7 +5907,10 @@
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13"/>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H103" s="39">
         <v>1</v>
       </c>
@@ -5840,7 +5920,7 @@
         <v>37493</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f>EDATE(A102,1)</f>
         <v>37500</v>
@@ -5861,7 +5941,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f>EDATE(A104,1)</f>
         <v>37530</v>
@@ -5888,7 +5968,7 @@
         <v>37552</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -5915,7 +5995,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="5"/>
         <v>37591</v>
@@ -5942,7 +6022,7 @@
         <v>37606</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="48" t="s">
         <v>92</v>
       </c>
@@ -5960,7 +6040,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f>EDATE(A107,1)</f>
         <v>37622</v>
@@ -5981,7 +6061,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f>EDATE(A109,1)</f>
         <v>37653</v>
@@ -6002,7 +6082,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" ref="A111:A120" si="6">EDATE(A110,1)</f>
         <v>37681</v>
@@ -6023,7 +6103,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -6044,7 +6124,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -6065,7 +6145,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="6"/>
         <v>37773</v>
@@ -6086,7 +6166,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f t="shared" si="6"/>
         <v>37803</v>
@@ -6107,7 +6187,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -6128,7 +6208,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>37865</v>
@@ -6155,7 +6235,7 @@
         <v>37888</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -6176,7 +6256,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -6197,7 +6277,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="6"/>
         <v>37956</v>
@@ -6222,7 +6302,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="48" t="s">
         <v>93</v>
       </c>
@@ -6240,7 +6320,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>37987</v>
@@ -6267,7 +6347,7 @@
         <v>37995</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f>EDATE(A122,1)</f>
         <v>38018</v>
@@ -6294,7 +6374,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" ref="A124:A134" si="7">EDATE(A123,1)</f>
         <v>38047</v>
@@ -6321,7 +6401,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -6346,7 +6426,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -6367,7 +6447,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -6388,7 +6468,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -6415,7 +6495,7 @@
         <v>38198</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>117</v>
@@ -6426,13 +6506,16 @@
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="13"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
       <c r="K129" s="49"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f>EDATE(A128,1)</f>
         <v>38200</v>
@@ -6457,7 +6540,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -6482,7 +6565,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>38261</v>
@@ -6507,7 +6590,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>38292</v>
@@ -6532,7 +6615,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="7"/>
         <v>38322</v>
@@ -6557,7 +6640,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>94</v>
       </c>
@@ -6575,7 +6658,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>38353</v>
@@ -6602,7 +6685,7 @@
         <v>38362</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>124</v>
@@ -6613,13 +6696,16 @@
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="20"/>
-      <c r="G137" s="13"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H137" s="39"/>
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>38384</v>
@@ -6644,7 +6730,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A150" si="8">EDATE(A138,1)</f>
         <v>38412</v>
@@ -6669,7 +6755,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>38443</v>
@@ -6694,7 +6780,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f t="shared" si="8"/>
         <v>38473</v>
@@ -6719,7 +6805,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>128</v>
@@ -6730,13 +6816,16 @@
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="20"/>
-      <c r="G142" s="13"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H142" s="39"/>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f>EDATE(A141,1)</f>
         <v>38504</v>
@@ -6761,7 +6850,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -6788,7 +6877,7 @@
         <v>38551</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>61</v>
@@ -6797,7 +6886,10 @@
       <c r="D145" s="39"/>
       <c r="E145" s="9"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="13"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H145" s="39">
         <v>2</v>
       </c>
@@ -6807,7 +6899,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>131</v>
@@ -6818,13 +6910,16 @@
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="13"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H146" s="39"/>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A144,1)</f>
         <v>38565</v>
@@ -6849,7 +6944,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -6874,7 +6969,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="8"/>
         <v>38626</v>
@@ -6899,7 +6994,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -6924,7 +7019,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>138</v>
@@ -6933,7 +7028,10 @@
       <c r="D151" s="39"/>
       <c r="E151" s="9"/>
       <c r="F151" s="20"/>
-      <c r="G151" s="13"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H151" s="39">
         <v>4</v>
       </c>
@@ -6943,7 +7041,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f>EDATE(A150,1)</f>
         <v>38687</v>
@@ -6968,7 +7066,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>46</v>
@@ -6979,13 +7077,16 @@
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="20"/>
-      <c r="G153" s="13"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H153" s="39"/>
       <c r="I153" s="9"/>
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="48" t="s">
         <v>123</v>
       </c>
@@ -7003,7 +7104,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f>EDATE(A152,1)</f>
         <v>38718</v>
@@ -7028,7 +7129,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>142</v>
@@ -7039,13 +7140,16 @@
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="20"/>
-      <c r="G156" s="13"/>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H156" s="39"/>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f>EDATE(A155,1)</f>
         <v>38749</v>
@@ -7070,7 +7174,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" ref="A158:A169" si="9">EDATE(A157,1)</f>
         <v>38777</v>
@@ -7095,7 +7199,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>145</v>
@@ -7106,13 +7210,16 @@
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="20"/>
-      <c r="G159" s="13"/>
+      <c r="G159" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H159" s="39"/>
       <c r="I159" s="9"/>
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>38808</v>
@@ -7137,7 +7244,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="9"/>
         <v>38838</v>
@@ -7162,7 +7269,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -7187,7 +7294,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>66</v>
@@ -7196,7 +7303,10 @@
       <c r="D163" s="39"/>
       <c r="E163" s="9"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="13"/>
+      <c r="G163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H163" s="39"/>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
@@ -7204,7 +7314,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f>EDATE(A162,1)</f>
         <v>38899</v>
@@ -7229,7 +7339,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f t="shared" si="9"/>
         <v>38930</v>
@@ -7254,7 +7364,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="9"/>
         <v>38961</v>
@@ -7279,7 +7389,7 @@
       <c r="J166" s="12"/>
       <c r="K166" s="15"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -7304,7 +7414,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -7329,7 +7439,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="9"/>
         <v>39052</v>
@@ -7354,7 +7464,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>154</v>
@@ -7374,7 +7484,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="48" t="s">
         <v>137</v>
       </c>
@@ -7392,7 +7502,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f>EDATE(A169,1)</f>
         <v>39083</v>
@@ -7417,7 +7527,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f>EDATE(A172,1)</f>
         <v>39114</v>
@@ -7444,7 +7554,7 @@
         <v>39139</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>156</v>
@@ -7464,7 +7574,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>39142</v>
@@ -7489,7 +7599,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>65</v>
@@ -7511,7 +7621,7 @@
         <v>39175</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>66</v>
@@ -7531,7 +7641,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>159</v>
@@ -7551,7 +7661,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A175,1)</f>
         <v>39173</v>
@@ -7576,7 +7686,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" ref="A180:A183" si="10">EDATE(A179,1)</f>
         <v>39203</v>
@@ -7603,7 +7713,7 @@
         <v>39227</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>161</v>
@@ -7623,7 +7733,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f>EDATE(A180,1)</f>
         <v>39234</v>
@@ -7648,7 +7758,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="10"/>
         <v>39264</v>
@@ -7675,7 +7785,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>164</v>
@@ -7686,13 +7796,16 @@
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="20"/>
-      <c r="G184" s="13"/>
+      <c r="G184" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H184" s="39"/>
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>39295</v>
@@ -7719,7 +7832,7 @@
         <v>39325</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>167</v>
@@ -7730,13 +7843,16 @@
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="20"/>
-      <c r="G186" s="13"/>
+      <c r="G186" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H186" s="39"/>
       <c r="I186" s="9"/>
       <c r="J186" s="11"/>
       <c r="K186" s="49"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f>EDATE(A185,1)</f>
         <v>39326</v>
@@ -7761,7 +7877,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f>EDATE(A187,1)</f>
         <v>39356</v>
@@ -7788,7 +7904,7 @@
         <v>39360</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>165</v>
@@ -7799,13 +7915,16 @@
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="20"/>
-      <c r="G189" s="13"/>
+      <c r="G189" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H189" s="39"/>
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f>EDATE(A188,1)</f>
         <v>39387</v>
@@ -7832,7 +7951,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>168</v>
@@ -7843,13 +7962,16 @@
       </c>
       <c r="E191" s="9"/>
       <c r="F191" s="20"/>
-      <c r="G191" s="13"/>
+      <c r="G191" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H191" s="39"/>
       <c r="I191" s="9"/>
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f>EDATE(A190,1)</f>
         <v>39417</v>
@@ -7874,7 +7996,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>171</v>
@@ -7885,13 +8007,16 @@
       </c>
       <c r="E193" s="9"/>
       <c r="F193" s="20"/>
-      <c r="G193" s="13"/>
+      <c r="G193" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H193" s="39"/>
       <c r="I193" s="9"/>
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="48" t="s">
         <v>153</v>
       </c>
@@ -7909,7 +8034,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f>EDATE(A192,1)</f>
         <v>39448</v>
@@ -7936,7 +8061,7 @@
         <v>39456</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>172</v>
@@ -7947,13 +8072,16 @@
       </c>
       <c r="E196" s="9"/>
       <c r="F196" s="20"/>
-      <c r="G196" s="13"/>
+      <c r="G196" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H196" s="39"/>
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
       <c r="K196" s="49"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f>EDATE(A195,1)</f>
         <v>39479</v>
@@ -7974,7 +8102,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f t="shared" ref="A198:A213" si="11">EDATE(A197,1)</f>
         <v>39508</v>
@@ -7995,7 +8123,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="11"/>
         <v>39539</v>
@@ -8016,7 +8144,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="11"/>
         <v>39569</v>
@@ -8037,7 +8165,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -8064,7 +8192,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>80</v>
@@ -8075,13 +8203,16 @@
       </c>
       <c r="E202" s="9"/>
       <c r="F202" s="20"/>
-      <c r="G202" s="13"/>
+      <c r="G202" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H202" s="39"/>
       <c r="I202" s="9"/>
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f>EDATE(A201,1)</f>
         <v>39630</v>
@@ -8108,7 +8239,7 @@
         <v>39633</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>65</v>
@@ -8117,7 +8248,10 @@
       <c r="D204" s="39"/>
       <c r="E204" s="9"/>
       <c r="F204" s="20"/>
-      <c r="G204" s="13"/>
+      <c r="G204" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H204" s="39">
         <v>1</v>
       </c>
@@ -8127,7 +8261,7 @@
         <v>39650</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>174</v>
@@ -8138,13 +8272,16 @@
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="20"/>
-      <c r="G205" s="13"/>
+      <c r="G205" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H205" s="39"/>
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
       <c r="K205" s="49"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f>EDATE(A203,1)</f>
         <v>39661</v>
@@ -8171,7 +8308,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>61</v>
@@ -8180,7 +8317,10 @@
       <c r="D207" s="39"/>
       <c r="E207" s="9"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="13"/>
+      <c r="G207" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H207" s="39">
         <v>2</v>
       </c>
@@ -8188,7 +8328,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>175</v>
@@ -8199,13 +8339,16 @@
       </c>
       <c r="E208" s="9"/>
       <c r="F208" s="20"/>
-      <c r="G208" s="13"/>
+      <c r="G208" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H208" s="39"/>
       <c r="I208" s="9"/>
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f>EDATE(A206,1)</f>
         <v>39692</v>
@@ -8232,7 +8375,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>177</v>
@@ -8243,13 +8386,16 @@
       </c>
       <c r="E210" s="9"/>
       <c r="F210" s="20"/>
-      <c r="G210" s="13"/>
+      <c r="G210" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H210" s="39"/>
       <c r="I210" s="9"/>
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f>EDATE(A209,1)</f>
         <v>39722</v>
@@ -8270,7 +8416,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -8291,7 +8437,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="11"/>
         <v>39783</v>
@@ -8316,7 +8462,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="48" t="s">
         <v>170</v>
       </c>
@@ -8334,7 +8480,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>39814</v>
@@ -8355,7 +8501,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f>EDATE(A215,1)</f>
         <v>39845</v>
@@ -8376,7 +8522,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f t="shared" ref="A217:A226" si="12">EDATE(A216,1)</f>
         <v>39873</v>
@@ -8397,7 +8543,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" si="12"/>
         <v>39904</v>
@@ -8418,7 +8564,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -8439,7 +8585,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" si="12"/>
         <v>39965</v>
@@ -8464,7 +8610,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -8485,7 +8631,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -8512,7 +8658,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -8533,7 +8679,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="12"/>
         <v>40087</v>
@@ -8554,7 +8700,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f t="shared" si="12"/>
         <v>40118</v>
@@ -8575,7 +8721,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" si="12"/>
         <v>40148</v>
@@ -8600,7 +8746,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="48" t="s">
         <v>179</v>
       </c>
@@ -8609,13 +8755,16 @@
       <c r="D227" s="39"/>
       <c r="E227" s="9"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="13"/>
+      <c r="G227" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H227" s="39"/>
       <c r="I227" s="9"/>
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>40179</v>
@@ -8636,7 +8785,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A228,1)</f>
         <v>40210</v>
@@ -8657,7 +8806,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" ref="A230:A239" si="13">EDATE(A229,1)</f>
         <v>40238</v>
@@ -8678,7 +8827,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="13"/>
         <v>40269</v>
@@ -8699,7 +8848,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -8720,7 +8869,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f t="shared" si="13"/>
         <v>40330</v>
@@ -8741,7 +8890,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f t="shared" si="13"/>
         <v>40360</v>
@@ -8762,7 +8911,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -8783,7 +8932,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="13"/>
         <v>40422</v>
@@ -8804,7 +8953,7 @@
       <c r="J236" s="12"/>
       <c r="K236" s="15"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="13"/>
         <v>40452</v>
@@ -8825,7 +8974,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f>EDATE(A237,1)</f>
         <v>40483</v>
@@ -8846,7 +8995,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="13"/>
         <v>40513</v>
@@ -8871,7 +9020,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="48" t="s">
         <v>184</v>
       </c>
@@ -8889,7 +9038,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f>EDATE(A239,1)</f>
         <v>40544</v>
@@ -8910,7 +9059,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f>EDATE(A241,1)</f>
         <v>40575</v>
@@ -8931,7 +9080,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f t="shared" ref="A243:A251" si="14">EDATE(A242,1)</f>
         <v>40603</v>
@@ -8952,7 +9101,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f t="shared" si="14"/>
         <v>40634</v>
@@ -8973,7 +9122,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f t="shared" si="14"/>
         <v>40664</v>
@@ -8994,7 +9143,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" si="14"/>
         <v>40695</v>
@@ -9015,7 +9164,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" si="14"/>
         <v>40725</v>
@@ -9036,7 +9185,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -9057,7 +9206,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -9078,7 +9227,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="14"/>
         <v>40817</v>
@@ -9099,7 +9248,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="14"/>
         <v>40848</v>
@@ -9126,7 +9275,7 @@
         <v>40872</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>65</v>
@@ -9135,7 +9284,10 @@
       <c r="D252" s="39"/>
       <c r="E252" s="9"/>
       <c r="F252" s="20"/>
-      <c r="G252" s="13"/>
+      <c r="G252" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H252" s="39">
         <v>1</v>
       </c>
@@ -9145,7 +9297,7 @@
         <v>40876</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>186</v>
@@ -9156,13 +9308,16 @@
       </c>
       <c r="E253" s="9"/>
       <c r="F253" s="20"/>
-      <c r="G253" s="13"/>
+      <c r="G253" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H253" s="39"/>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A251,1)</f>
         <v>40878</v>
@@ -9189,7 +9344,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>46</v>
@@ -9200,13 +9355,16 @@
       </c>
       <c r="E255" s="9"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="13"/>
+      <c r="G255" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H255" s="39"/>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="48" t="s">
         <v>185</v>
       </c>
@@ -9224,7 +9382,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f>EDATE(A254,1)</f>
         <v>40909</v>
@@ -9249,7 +9407,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f>EDATE(A257,1)</f>
         <v>40940</v>
@@ -9274,7 +9432,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>110</v>
@@ -9283,7 +9441,10 @@
       <c r="D259" s="39"/>
       <c r="E259" s="9"/>
       <c r="F259" s="20"/>
-      <c r="G259" s="13"/>
+      <c r="G259" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H259" s="39">
         <v>3</v>
       </c>
@@ -9293,7 +9454,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>190</v>
@@ -9304,13 +9465,16 @@
       </c>
       <c r="E260" s="9"/>
       <c r="F260" s="20"/>
-      <c r="G260" s="13"/>
+      <c r="G260" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H260" s="39"/>
       <c r="I260" s="9"/>
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f>EDATE(A258,1)</f>
         <v>40969</v>
@@ -9337,7 +9501,7 @@
         <v>40981</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>191</v>
@@ -9348,13 +9512,16 @@
       </c>
       <c r="E262" s="9"/>
       <c r="F262" s="20"/>
-      <c r="G262" s="13"/>
+      <c r="G262" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H262" s="39"/>
       <c r="I262" s="9"/>
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f>EDATE(A261,1)</f>
         <v>41000</v>
@@ -9379,7 +9546,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f t="shared" ref="A264:A271" si="15">EDATE(A263,1)</f>
         <v>41030</v>
@@ -9406,7 +9573,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>193</v>
@@ -9417,13 +9584,16 @@
       </c>
       <c r="E265" s="9"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="13"/>
+      <c r="G265" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H265" s="39"/>
       <c r="I265" s="9"/>
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f>EDATE(A264,1)</f>
         <v>41061</v>
@@ -9448,7 +9618,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>41091</v>
@@ -9473,7 +9643,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f t="shared" si="15"/>
         <v>41122</v>
@@ -9500,7 +9670,7 @@
         <v>41135</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>196</v>
@@ -9511,13 +9681,16 @@
       </c>
       <c r="E269" s="9"/>
       <c r="F269" s="20"/>
-      <c r="G269" s="13"/>
+      <c r="G269" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H269" s="39"/>
       <c r="I269" s="9"/>
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>41153</v>
@@ -9542,7 +9715,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -9569,7 +9742,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>201</v>
@@ -9580,13 +9753,16 @@
       </c>
       <c r="E272" s="9"/>
       <c r="F272" s="20"/>
-      <c r="G272" s="13"/>
+      <c r="G272" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H272" s="39"/>
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f>EDATE(A271,1)</f>
         <v>41214</v>
@@ -9613,7 +9789,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>61</v>
@@ -9622,7 +9798,10 @@
       <c r="D274" s="39"/>
       <c r="E274" s="9"/>
       <c r="F274" s="20"/>
-      <c r="G274" s="13"/>
+      <c r="G274" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H274" s="39">
         <v>2</v>
       </c>
@@ -9632,7 +9811,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>41244</v>
@@ -9659,7 +9838,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>110</v>
@@ -9668,7 +9847,10 @@
       <c r="D276" s="39"/>
       <c r="E276" s="9"/>
       <c r="F276" s="20"/>
-      <c r="G276" s="13"/>
+      <c r="G276" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H276" s="39">
         <v>3</v>
       </c>
@@ -9676,7 +9858,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>46</v>
@@ -9687,13 +9869,16 @@
       </c>
       <c r="E277" s="9"/>
       <c r="F277" s="20"/>
-      <c r="G277" s="13"/>
+      <c r="G277" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H277" s="39"/>
       <c r="I277" s="9"/>
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>206</v>
@@ -9704,13 +9889,16 @@
       </c>
       <c r="E278" s="9"/>
       <c r="F278" s="20"/>
-      <c r="G278" s="13"/>
+      <c r="G278" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H278" s="39"/>
       <c r="I278" s="9"/>
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="48" t="s">
         <v>188</v>
       </c>
@@ -9728,7 +9916,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A275,1)</f>
         <v>41275</v>
@@ -9753,7 +9941,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>41306</v>
@@ -9780,7 +9968,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>65</v>
@@ -9789,7 +9977,10 @@
       <c r="D282" s="39"/>
       <c r="E282" s="9"/>
       <c r="F282" s="20"/>
-      <c r="G282" s="13"/>
+      <c r="G282" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H282" s="39">
         <v>1</v>
       </c>
@@ -9799,7 +9990,7 @@
         <v>41309</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>65</v>
@@ -9808,7 +9999,10 @@
       <c r="D283" s="39"/>
       <c r="E283" s="9"/>
       <c r="F283" s="20"/>
-      <c r="G283" s="13"/>
+      <c r="G283" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H283" s="39">
         <v>1</v>
       </c>
@@ -9818,7 +10012,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>208</v>
@@ -9829,13 +10023,16 @@
       </c>
       <c r="E284" s="9"/>
       <c r="F284" s="20"/>
-      <c r="G284" s="13"/>
+      <c r="G284" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H284" s="39"/>
       <c r="I284" s="9"/>
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f>EDATE(A281,1)</f>
         <v>41334</v>
@@ -9862,7 +10059,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f t="shared" ref="A286:A296" si="16">EDATE(A285,1)</f>
         <v>41365</v>
@@ -9889,7 +10086,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>66</v>
@@ -9898,7 +10095,10 @@
       <c r="D287" s="39"/>
       <c r="E287" s="9"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="13"/>
+      <c r="G287" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H287" s="39"/>
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
@@ -9906,7 +10106,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>132</v>
@@ -9917,13 +10117,16 @@
       </c>
       <c r="E288" s="9"/>
       <c r="F288" s="20"/>
-      <c r="G288" s="13"/>
+      <c r="G288" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H288" s="39"/>
       <c r="I288" s="9"/>
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>41395</v>
@@ -9939,7 +10142,7 @@
       </c>
       <c r="E289" s="50"/>
       <c r="F289" s="15"/>
-      <c r="G289" s="42">
+      <c r="G289" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -9948,7 +10151,7 @@
       <c r="J289" s="12"/>
       <c r="K289" s="15"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="16"/>
         <v>41426</v>
@@ -9973,7 +10176,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="16"/>
         <v>41456</v>
@@ -9998,7 +10201,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f t="shared" si="16"/>
         <v>41487</v>
@@ -10025,7 +10228,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>216</v>
@@ -10036,19 +10239,22 @@
       </c>
       <c r="E293" s="9"/>
       <c r="F293" s="20"/>
-      <c r="G293" s="13"/>
+      <c r="G293" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H293" s="39"/>
       <c r="I293" s="9"/>
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f>EDATE(A292,1)</f>
         <v>41518</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="C294" s="13">
         <v>1.25</v>
@@ -10067,13 +10273,13 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A294,1)</f>
         <v>41548</v>
       </c>
       <c r="B295" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C295" s="13">
         <v>1.25</v>
@@ -10092,7 +10298,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f t="shared" si="16"/>
         <v>41579</v>
@@ -10116,13 +10322,13 @@
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
       <c r="K296" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C297" s="13"/>
       <c r="D297" s="39">
@@ -10130,13 +10336,16 @@
       </c>
       <c r="E297" s="9"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="13"/>
+      <c r="G297" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H297" s="39"/>
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>41609</v>
@@ -10161,7 +10370,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="48" t="s">
         <v>205</v>
       </c>
@@ -10179,7 +10388,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>41640</v>
@@ -10206,7 +10415,7 @@
         <v>41653</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f>EDATE(A300,1)</f>
         <v>41671</v>
@@ -10230,10 +10439,10 @@
       <c r="I301" s="9"/>
       <c r="J301" s="11"/>
       <c r="K301" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>66</v>
@@ -10242,15 +10451,18 @@
       <c r="D302" s="39"/>
       <c r="E302" s="9"/>
       <c r="F302" s="20"/>
-      <c r="G302" s="13"/>
+      <c r="G302" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H302" s="39"/>
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
       <c r="K302" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f>EDATE(A301,1)</f>
         <v>41699</v>
@@ -10271,7 +10483,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" ref="A304:A312" si="17">EDATE(A303,1)</f>
         <v>41730</v>
@@ -10293,10 +10505,10 @@
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
       <c r="K304" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -10317,7 +10529,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f t="shared" si="17"/>
         <v>41791</v>
@@ -10338,7 +10550,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f t="shared" si="17"/>
         <v>41821</v>
@@ -10359,7 +10571,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -10380,7 +10592,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f t="shared" si="17"/>
         <v>41883</v>
@@ -10404,10 +10616,10 @@
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
       <c r="K309" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -10428,7 +10640,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f t="shared" si="17"/>
         <v>41944</v>
@@ -10452,10 +10664,10 @@
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
       <c r="K311" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f t="shared" si="17"/>
         <v>41974</v>
@@ -10480,9 +10692,9 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -10498,7 +10710,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f>EDATE(A312,1)</f>
         <v>42005</v>
@@ -10519,7 +10731,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A314,1)</f>
         <v>42036</v>
@@ -10540,7 +10752,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A324" si="18">EDATE(A315,1)</f>
         <v>42064</v>
@@ -10561,7 +10773,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" si="18"/>
         <v>42095</v>
@@ -10585,10 +10797,10 @@
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f t="shared" si="18"/>
         <v>42125</v>
@@ -10609,7 +10821,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="18"/>
         <v>42156</v>
@@ -10630,7 +10842,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -10651,7 +10863,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -10672,7 +10884,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" si="18"/>
         <v>42248</v>
@@ -10693,7 +10905,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <f t="shared" si="18"/>
         <v>42278</v>
@@ -10714,7 +10926,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -10735,7 +10947,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A324,1)</f>
         <v>42339</v>
@@ -10760,9 +10972,9 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -10778,7 +10990,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f>EDATE(A325,1)</f>
         <v>42370</v>
@@ -10799,7 +11011,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f>EDATE(A327,1)</f>
         <v>42401</v>
@@ -10823,10 +11035,10 @@
       <c r="I328" s="9"/>
       <c r="J328" s="11"/>
       <c r="K328" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f t="shared" ref="A329:A338" si="19">EDATE(A328,1)</f>
         <v>42430</v>
@@ -10847,7 +11059,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="19"/>
         <v>42461</v>
@@ -10868,7 +11080,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f t="shared" si="19"/>
         <v>42491</v>
@@ -10890,10 +11102,10 @@
       <c r="I331" s="9"/>
       <c r="J331" s="11"/>
       <c r="K331" s="20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -10914,7 +11126,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -10935,7 +11147,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -10962,7 +11174,7 @@
         <v>42594</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f>EDATE(A334,1)</f>
         <v>42614</v>
@@ -10983,7 +11195,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -11004,7 +11216,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A336,1)</f>
         <v>42675</v>
@@ -11028,10 +11240,10 @@
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
       <c r="K337" s="20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -11056,9 +11268,9 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
@@ -11074,7 +11286,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <f>EDATE(A338,1)</f>
         <v>42736</v>
@@ -11095,7 +11307,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A340,1)</f>
         <v>42767</v>
@@ -11116,7 +11328,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A349" si="20">EDATE(A341,1)</f>
         <v>42795</v>
@@ -11137,7 +11349,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="20"/>
         <v>42826</v>
@@ -11158,7 +11370,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -11180,10 +11392,10 @@
       <c r="I344" s="9"/>
       <c r="J344" s="11"/>
       <c r="K344" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f t="shared" si="20"/>
         <v>42887</v>
@@ -11204,7 +11416,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A345,1)</f>
         <v>42917</v>
@@ -11231,7 +11443,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="20"/>
         <v>42948</v>
@@ -11252,7 +11464,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f t="shared" si="20"/>
         <v>42979</v>
@@ -11273,7 +11485,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="20"/>
         <v>43009</v>
@@ -11294,7 +11506,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f>EDATE(A349,1)</f>
         <v>43040</v>
@@ -11321,7 +11533,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>50</v>
@@ -11332,15 +11544,18 @@
       </c>
       <c r="E351" s="9"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="13"/>
+      <c r="G351" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H351" s="39"/>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
       <c r="K351" s="49" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>65</v>
@@ -11349,7 +11564,10 @@
       <c r="D352" s="39"/>
       <c r="E352" s="9"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="13"/>
+      <c r="G352" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H352" s="39">
         <v>1</v>
       </c>
@@ -11359,7 +11577,7 @@
         <v>43067</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <f>EDATE(A350,1)</f>
         <v>43070</v>
@@ -11380,9 +11598,9 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -11398,7 +11616,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f>EDATE(A353,1)</f>
         <v>43101</v>
@@ -11419,7 +11637,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f>EDATE(A355,1)</f>
         <v>43132</v>
@@ -11440,7 +11658,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f t="shared" ref="A357:A365" si="21">EDATE(A356,1)</f>
         <v>43160</v>
@@ -11461,7 +11679,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f t="shared" si="21"/>
         <v>43191</v>
@@ -11482,7 +11700,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f t="shared" si="21"/>
         <v>43221</v>
@@ -11504,10 +11722,10 @@
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -11531,10 +11749,10 @@
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
       <c r="K360" s="20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f t="shared" si="21"/>
         <v>43282</v>
@@ -11558,10 +11776,10 @@
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
       <c r="K361" s="20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f t="shared" si="21"/>
         <v>43313</v>
@@ -11588,7 +11806,7 @@
         <v>43332</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -11609,7 +11827,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="21"/>
         <v>43374</v>
@@ -11636,7 +11854,7 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f t="shared" si="21"/>
         <v>43405</v>
@@ -11650,7 +11868,7 @@
       <c r="D365" s="43"/>
       <c r="E365" s="50"/>
       <c r="F365" s="15"/>
-      <c r="G365" s="42">
+      <c r="G365" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -11663,7 +11881,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>110</v>
@@ -11672,17 +11890,20 @@
       <c r="D366" s="39"/>
       <c r="E366" s="9"/>
       <c r="F366" s="20"/>
-      <c r="G366" s="13"/>
+      <c r="G366" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H366" s="39">
         <v>3</v>
       </c>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
       <c r="K366" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <f>EDATE(A365,1)</f>
         <v>43435</v>
@@ -11709,7 +11930,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>46</v>
@@ -11720,15 +11941,18 @@
       </c>
       <c r="E368" s="9"/>
       <c r="F368" s="20"/>
-      <c r="G368" s="13"/>
+      <c r="G368" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H368" s="39"/>
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -11744,7 +11968,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A367,1)</f>
         <v>43466</v>
@@ -11765,7 +11989,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f>EDATE(A370,1)</f>
         <v>43497</v>
@@ -11786,7 +12010,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f t="shared" ref="A372:A381" si="22">EDATE(A371,1)</f>
         <v>43525</v>
@@ -11807,7 +12031,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f t="shared" si="22"/>
         <v>43556</v>
@@ -11828,7 +12052,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -11850,10 +12074,10 @@
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
       <c r="K374" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="22"/>
         <v>43617</v>
@@ -11874,7 +12098,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f t="shared" si="22"/>
         <v>43647</v>
@@ -11895,7 +12119,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A376,1)</f>
         <v>43678</v>
@@ -11916,7 +12140,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f t="shared" si="22"/>
         <v>43709</v>
@@ -11940,10 +12164,10 @@
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
       <c r="K378" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>50</v>
@@ -11954,15 +12178,18 @@
       </c>
       <c r="E379" s="9"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="13"/>
+      <c r="G379" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H379" s="39"/>
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
       <c r="K379" s="20" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f>EDATE(A378,1)</f>
         <v>43739</v>
@@ -11983,7 +12210,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -12004,7 +12231,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f>EDATE(A381,1)</f>
         <v>43800</v>
@@ -12025,9 +12252,9 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -12043,7 +12270,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f>EDATE(A382,1)</f>
         <v>43831</v>
@@ -12064,7 +12291,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f>EDATE(A384,1)</f>
         <v>43862</v>
@@ -12085,7 +12312,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f t="shared" ref="A386:A395" si="23">EDATE(A385,1)</f>
         <v>43891</v>
@@ -12112,7 +12339,7 @@
         <v>43533</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="23"/>
         <v>43922</v>
@@ -12133,7 +12360,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="23"/>
         <v>43952</v>
@@ -12154,7 +12381,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f t="shared" si="23"/>
         <v>43983</v>
@@ -12175,7 +12402,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="23"/>
         <v>44013</v>
@@ -12199,10 +12426,10 @@
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
       <c r="K390" s="20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f>EDATE(A390,1)</f>
         <v>44044</v>
@@ -12223,7 +12450,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f t="shared" si="23"/>
         <v>44075</v>
@@ -12244,7 +12471,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f t="shared" si="23"/>
         <v>44105</v>
@@ -12265,7 +12492,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f>EDATE(A393,1)</f>
         <v>44136</v>
@@ -12286,7 +12513,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f t="shared" si="23"/>
         <v>44166</v>
@@ -12311,16 +12538,16 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B396" s="15"/>
       <c r="C396" s="42"/>
       <c r="D396" s="43"/>
       <c r="E396" s="50"/>
       <c r="F396" s="15"/>
-      <c r="G396" s="42" t="str">
+      <c r="G396" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -12329,7 +12556,7 @@
       <c r="J396" s="12"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>44197</v>
@@ -12350,7 +12577,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f>EDATE(A397,1)</f>
         <v>44228</v>
@@ -12371,7 +12598,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f t="shared" ref="A399:A408" si="24">EDATE(A398,1)</f>
         <v>44256</v>
@@ -12392,7 +12619,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f t="shared" si="24"/>
         <v>44287</v>
@@ -12413,7 +12640,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f t="shared" si="24"/>
         <v>44317</v>
@@ -12434,7 +12661,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f t="shared" si="24"/>
         <v>44348</v>
@@ -12455,7 +12682,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="24"/>
         <v>44378</v>
@@ -12476,7 +12703,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f t="shared" si="24"/>
         <v>44409</v>
@@ -12497,7 +12724,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f t="shared" si="24"/>
         <v>44440</v>
@@ -12518,7 +12745,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f t="shared" si="24"/>
         <v>44470</v>
@@ -12539,7 +12766,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f t="shared" si="24"/>
         <v>44501</v>
@@ -12560,7 +12787,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f t="shared" si="24"/>
         <v>44531</v>
@@ -12585,9 +12812,9 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -12603,7 +12830,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>44562</v>
@@ -12624,7 +12851,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A410,1)</f>
         <v>44593</v>
@@ -12645,7 +12872,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f t="shared" ref="A412:A415" si="25">EDATE(A411,1)</f>
         <v>44621</v>
@@ -12666,7 +12893,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f t="shared" si="25"/>
         <v>44652</v>
@@ -12680,7 +12907,7 @@
       <c r="D413" s="43"/>
       <c r="E413" s="50"/>
       <c r="F413" s="15"/>
-      <c r="G413" s="42">
+      <c r="G413" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -12688,10 +12915,10 @@
       <c r="I413" s="50"/>
       <c r="J413" s="12"/>
       <c r="K413" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f t="shared" si="25"/>
         <v>44682</v>
@@ -12712,7 +12939,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f t="shared" si="25"/>
         <v>44713</v>
@@ -12737,7 +12964,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>61</v>
@@ -12746,136 +12973,201 @@
       <c r="D416" s="39"/>
       <c r="E416" s="9"/>
       <c r="F416" s="20"/>
-      <c r="G416" s="13"/>
-      <c r="H416" s="39"/>
+      <c r="G416" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H416" s="39">
+        <v>2</v>
+      </c>
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
       <c r="K416" s="20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="40"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A417" s="40">
+        <v>44743</v>
+      </c>
       <c r="B417" s="20"/>
-      <c r="C417" s="13"/>
+      <c r="C417" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D417" s="39"/>
       <c r="E417" s="9"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="13"/>
+      <c r="G417" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H417" s="39"/>
       <c r="I417" s="9"/>
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="40"/>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A418" s="40">
+        <v>44774</v>
+      </c>
       <c r="B418" s="20"/>
-      <c r="C418" s="13"/>
+      <c r="C418" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D418" s="39"/>
       <c r="E418" s="9"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="13"/>
+      <c r="G418" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H418" s="39"/>
       <c r="I418" s="9"/>
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="40"/>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A419" s="40">
+        <v>44805</v>
+      </c>
       <c r="B419" s="20"/>
-      <c r="C419" s="13"/>
+      <c r="C419" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D419" s="39"/>
       <c r="E419" s="9"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="13"/>
+      <c r="G419" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H419" s="39"/>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="40"/>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A420" s="40">
+        <v>44835</v>
+      </c>
       <c r="B420" s="20"/>
-      <c r="C420" s="13"/>
+      <c r="C420" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D420" s="39"/>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="13"/>
+      <c r="G420" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H420" s="39"/>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="40"/>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A421" s="40">
+        <v>44866</v>
+      </c>
       <c r="B421" s="20"/>
-      <c r="C421" s="13"/>
+      <c r="C421" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D421" s="39"/>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="13"/>
+      <c r="G421" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H421" s="39"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="40"/>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A422" s="40">
+        <v>44896</v>
+      </c>
       <c r="B422" s="20"/>
-      <c r="C422" s="13"/>
+      <c r="C422" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D422" s="39"/>
       <c r="E422" s="9"/>
       <c r="F422" s="20"/>
-      <c r="G422" s="13"/>
+      <c r="G422" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H422" s="39"/>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="40"/>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423" s="48" t="s">
+        <v>252</v>
+      </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
       <c r="D423" s="39"/>
       <c r="E423" s="9"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="13"/>
+      <c r="G423" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H423" s="39"/>
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="40"/>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A424" s="40">
+        <v>44927</v>
+      </c>
       <c r="B424" s="20"/>
-      <c r="C424" s="13"/>
+      <c r="C424" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D424" s="39"/>
       <c r="E424" s="9"/>
       <c r="F424" s="20"/>
-      <c r="G424" s="13"/>
+      <c r="G424" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H424" s="39"/>
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="40"/>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A425" s="40">
+        <v>44958</v>
+      </c>
       <c r="B425" s="20"/>
-      <c r="C425" s="13"/>
+      <c r="C425" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D425" s="39"/>
       <c r="E425" s="9"/>
       <c r="F425" s="20"/>
-      <c r="G425" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G425" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H425" s="39"/>
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="40"/>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A426" s="40">
+        <v>44986</v>
+      </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
       <c r="D426" s="39"/>
@@ -12890,8 +13182,10 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="40"/>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A427" s="40">
+        <v>45017</v>
+      </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
       <c r="D427" s="39"/>
@@ -12906,8 +13200,10 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="40"/>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428" s="40">
+        <v>45047</v>
+      </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
       <c r="D428" s="39"/>
@@ -12922,8 +13218,10 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="40"/>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A429" s="40">
+        <v>45078</v>
+      </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
       <c r="D429" s="39"/>
@@ -12938,8 +13236,10 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="40"/>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A430" s="40">
+        <v>45108</v>
+      </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
       <c r="D430" s="39"/>
@@ -12954,8 +13254,10 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="40"/>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A431" s="40">
+        <v>45139</v>
+      </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
       <c r="D431" s="39"/>
@@ -12970,8 +13272,10 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="40"/>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A432" s="40">
+        <v>45170</v>
+      </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
       <c r="D432" s="39"/>
@@ -12986,8 +13290,10 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433" s="40"/>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A433" s="40">
+        <v>45200</v>
+      </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
       <c r="D433" s="39"/>
@@ -13002,8 +13308,10 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="40"/>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A434" s="40">
+        <v>45231</v>
+      </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
       <c r="D434" s="39"/>
@@ -13018,8 +13326,10 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" s="40"/>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A435" s="40">
+        <v>45261</v>
+      </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
       <c r="D435" s="39"/>
@@ -13034,8 +13344,10 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="40"/>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A436" s="40">
+        <v>45292</v>
+      </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
       <c r="D436" s="39"/>
@@ -13050,21 +13362,37 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="41"/>
-      <c r="B437" s="15"/>
-      <c r="C437" s="42"/>
-      <c r="D437" s="43"/>
-      <c r="E437" s="50"/>
-      <c r="F437" s="15"/>
-      <c r="G437" s="42" t="str">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A437" s="40"/>
+      <c r="B437" s="20"/>
+      <c r="C437" s="13"/>
+      <c r="D437" s="39"/>
+      <c r="E437" s="9"/>
+      <c r="F437" s="20"/>
+      <c r="G437" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H437" s="43"/>
-      <c r="I437" s="50"/>
-      <c r="J437" s="12"/>
-      <c r="K437" s="15"/>
+      <c r="H437" s="39"/>
+      <c r="I437" s="9"/>
+      <c r="J437" s="11"/>
+      <c r="K437" s="20"/>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A438" s="41"/>
+      <c r="B438" s="15"/>
+      <c r="C438" s="42"/>
+      <c r="D438" s="43"/>
+      <c r="E438" s="50"/>
+      <c r="F438" s="15"/>
+      <c r="G438" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H438" s="43"/>
+      <c r="I438" s="50"/>
+      <c r="J438" s="12"/>
+      <c r="K438" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13081,10 +13409,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13107,29 +13435,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -13142,7 +13470,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13171,13 +13499,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.625</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="D3">
         <v>1</v>
       </c>
@@ -13201,17 +13525,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13232,7 +13556,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13259,7 +13583,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13285,7 +13609,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13311,7 +13635,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13337,7 +13661,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13363,7 +13687,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13389,7 +13713,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13415,7 +13739,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13441,7 +13765,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13461,7 +13785,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13481,7 +13805,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13501,7 +13825,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13522,7 +13846,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13543,7 +13867,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13564,7 +13888,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13585,7 +13909,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13606,7 +13930,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13627,7 +13951,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13648,7 +13972,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13669,7 +13993,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13690,7 +14014,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13711,7 +14035,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13732,7 +14056,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13753,7 +14077,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13774,7 +14098,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13795,7 +14119,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13816,7 +14140,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13837,7 +14161,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13858,7 +14182,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13879,7 +14203,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13900,7 +14224,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13921,7 +14245,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13930,7 +14254,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13939,7 +14263,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13948,7 +14272,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13957,7 +14281,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13966,7 +14290,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13975,7 +14299,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13984,7 +14308,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13993,7 +14317,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14002,7 +14326,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14011,7 +14335,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14020,7 +14344,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14029,7 +14353,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14038,7 +14362,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14047,7 +14371,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14056,7 +14380,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14065,7 +14389,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14074,7 +14398,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14083,7 +14407,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14092,7 +14416,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14101,7 +14425,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14110,7 +14434,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14119,7 +14443,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14128,7 +14452,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14137,7 +14461,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14146,7 +14470,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14155,7 +14479,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14164,7 +14488,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14173,7 +14497,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14182,7 +14506,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/DIMAPILIS, DENNIS C..xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMAPILIS, DENNIS C..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F12A42A-836D-4311-99C8-6C40767FD772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="260">
   <si>
     <t>PERIOD</t>
   </si>
@@ -797,12 +796,30 @@
   </si>
   <si>
     <t>UT(0-6-35)</t>
+  </si>
+  <si>
+    <t>TOPS-CSU</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>MOURNING 10/12-14/2022</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/26-29/2022</t>
+  </si>
+  <si>
+    <t>2/7,8/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1681,7 +1698,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1741,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +1805,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1848,7 +1865,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1931,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1994,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2092,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2134,7 +2151,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2216,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2259,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2334,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2520,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2586,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2627,7 +2644,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2710,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2749,7 +2766,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2841,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2884,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,7 +2950,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2989,7 +3006,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3087,7 +3104,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3150,7 +3167,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3216,26 +3233,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K438" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3247,13 +3263,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3262,14 +3278,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3573,7 +3589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3583,7 +3599,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3591,34 +3607,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K438"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2520" topLeftCell="A5" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="E289" sqref="E289"/>
+      <pane ySplit="4425" topLeftCell="A415" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="H418" sqref="H418"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3641,7 +3657,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3659,7 +3675,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3670,7 +3686,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60"/>
+      <c r="F4" s="60" t="s">
+        <v>254</v>
+      </c>
       <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3679,7 +3697,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3687,7 +3705,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3700,7 +3718,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3717,7 +3735,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3752,7 +3770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3761,7 +3779,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>129.08999999999995</v>
+        <v>124.08999999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3771,12 +3789,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>242.375</v>
+        <v>240.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3798,7 +3816,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35627</v>
       </c>
@@ -3818,7 +3836,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35643</v>
       </c>
@@ -3838,7 +3856,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>35674</v>
@@ -3859,7 +3877,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f>EDATE(A13,1)</f>
         <v>35704</v>
@@ -3880,7 +3898,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" ref="A15:A16" si="0">EDATE(A14,1)</f>
         <v>35735</v>
@@ -3901,7 +3919,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -3922,7 +3940,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -3940,7 +3958,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>35796</v>
@@ -3961,7 +3979,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>35827</v>
@@ -3982,7 +4000,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" ref="A20:A27" si="1">EDATE(A19,1)</f>
         <v>35855</v>
@@ -4003,7 +4021,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -4028,7 +4046,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -4049,7 +4067,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -4070,7 +4088,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -4095,7 +4113,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -4120,7 +4138,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -4145,7 +4163,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -4170,7 +4188,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f>EDATE(A27,1)</f>
         <v>36100</v>
@@ -4197,7 +4215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>51</v>
@@ -4217,7 +4235,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A28,1)</f>
         <v>36130</v>
@@ -4242,7 +4260,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>44</v>
       </c>
@@ -4260,7 +4278,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f>EDATE(A30,1)</f>
         <v>36161</v>
@@ -4285,7 +4303,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A32,1)</f>
         <v>36192</v>
@@ -4310,7 +4328,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" ref="A34:A44" si="2">EDATE(A33,1)</f>
         <v>36220</v>
@@ -4335,7 +4353,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -4360,7 +4378,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="2"/>
         <v>36281</v>
@@ -4385,7 +4403,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>66</v>
@@ -4405,7 +4423,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f>EDATE(A36,1)</f>
         <v>36312</v>
@@ -4430,7 +4448,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>36342</v>
@@ -4457,7 +4475,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>62</v>
@@ -4477,7 +4495,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f>EDATE(A39,1)</f>
         <v>36373</v>
@@ -4502,7 +4520,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>36404</v>
@@ -4527,7 +4545,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -4548,7 +4566,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>36465</v>
@@ -4575,7 +4593,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4593,7 +4611,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A44,1)</f>
         <v>36495</v>
@@ -4620,7 +4638,7 @@
         <v>36515</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>61</v>
@@ -4642,7 +4660,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>73</v>
@@ -4662,7 +4680,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>46</v>
@@ -4682,7 +4700,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>54</v>
       </c>
@@ -4700,7 +4718,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f>EDATE(A46,1)</f>
         <v>36526</v>
@@ -4725,7 +4743,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>36557</v>
@@ -4750,7 +4768,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" ref="A53:A64" si="3">EDATE(A52,1)</f>
         <v>36586</v>
@@ -4775,7 +4793,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>36617</v>
@@ -4802,7 +4820,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>66</v>
@@ -4822,7 +4840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>80</v>
@@ -4842,7 +4860,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f>EDATE(A54,1)</f>
         <v>36647</v>
@@ -4867,7 +4885,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -4892,7 +4910,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -4919,7 +4937,7 @@
         <v>36725</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>82</v>
@@ -4939,7 +4957,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f>EDATE(A59,1)</f>
         <v>36739</v>
@@ -4966,7 +4984,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>83</v>
@@ -4986,7 +5004,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36770</v>
@@ -5011,7 +5029,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>36800</v>
@@ -5038,7 +5056,7 @@
         <v>36801</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>85</v>
@@ -5058,7 +5076,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36831</v>
@@ -5085,7 +5103,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>81</v>
@@ -5105,7 +5123,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f>EDATE(A66,1)</f>
         <v>36861</v>
@@ -5132,7 +5150,7 @@
         <v>36868</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>61</v>
@@ -5154,7 +5172,7 @@
         <v>36879</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>61</v>
@@ -5176,7 +5194,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>87</v>
@@ -5196,7 +5214,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>72</v>
       </c>
@@ -5214,7 +5232,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f>EDATE(A68,1)</f>
         <v>36892</v>
@@ -5239,7 +5257,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A73,1)</f>
         <v>36923</v>
@@ -5260,7 +5278,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" ref="A75:A84" si="4">EDATE(A74,1)</f>
         <v>36951</v>
@@ -5281,7 +5299,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f t="shared" si="4"/>
         <v>36982</v>
@@ -5302,7 +5320,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" si="4"/>
         <v>37012</v>
@@ -5329,7 +5347,7 @@
         <v>37015</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>66</v>
@@ -5349,7 +5367,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f>EDATE(A77,1)</f>
         <v>37043</v>
@@ -5370,7 +5388,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -5391,7 +5409,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>37104</v>
@@ -5418,7 +5436,7 @@
         <v>37127</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="4"/>
         <v>37135</v>
@@ -5439,7 +5457,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="4"/>
         <v>37165</v>
@@ -5464,7 +5482,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>37196</v>
@@ -5491,7 +5509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>65</v>
@@ -5513,7 +5531,7 @@
         <v>37211</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>65</v>
@@ -5535,7 +5553,7 @@
         <v>40874</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>84</v>
@@ -5555,7 +5573,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A84,1)</f>
         <v>37226</v>
@@ -5580,7 +5598,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>73</v>
@@ -5600,7 +5618,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>91</v>
       </c>
@@ -5618,7 +5636,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f>EDATE(A88,1)</f>
         <v>37257</v>
@@ -5643,7 +5661,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A91,1)</f>
         <v>37288</v>
@@ -5670,7 +5688,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>101</v>
@@ -5692,7 +5710,7 @@
         <v>37337</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>103</v>
@@ -5712,7 +5730,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="49"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A92,1)</f>
         <v>37316</v>
@@ -5737,7 +5755,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>65</v>
@@ -5759,7 +5777,7 @@
         <v>37349</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>37347</v>
@@ -5784,7 +5802,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>66</v>
@@ -5804,7 +5822,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>37377</v>
@@ -5829,7 +5847,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" ref="A100:A107" si="5">EDATE(A99,1)</f>
         <v>37408</v>
@@ -5850,7 +5868,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -5871,7 +5889,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -5898,7 +5916,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>65</v>
@@ -5920,7 +5938,7 @@
         <v>37493</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A102,1)</f>
         <v>37500</v>
@@ -5941,7 +5959,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f>EDATE(A104,1)</f>
         <v>37530</v>
@@ -5968,7 +5986,7 @@
         <v>37552</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -5995,7 +6013,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="5"/>
         <v>37591</v>
@@ -6022,7 +6040,7 @@
         <v>37606</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>92</v>
       </c>
@@ -6040,7 +6058,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f>EDATE(A107,1)</f>
         <v>37622</v>
@@ -6061,7 +6079,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A109,1)</f>
         <v>37653</v>
@@ -6082,7 +6100,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" ref="A111:A120" si="6">EDATE(A110,1)</f>
         <v>37681</v>
@@ -6103,7 +6121,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -6124,7 +6142,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -6145,7 +6163,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="6"/>
         <v>37773</v>
@@ -6166,7 +6184,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="6"/>
         <v>37803</v>
@@ -6187,7 +6205,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -6208,7 +6226,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>37865</v>
@@ -6235,7 +6253,7 @@
         <v>37888</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -6256,7 +6274,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -6277,7 +6295,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="6"/>
         <v>37956</v>
@@ -6302,7 +6320,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
         <v>93</v>
       </c>
@@ -6320,7 +6338,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>37987</v>
@@ -6347,7 +6365,7 @@
         <v>37995</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f>EDATE(A122,1)</f>
         <v>38018</v>
@@ -6374,7 +6392,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" ref="A124:A134" si="7">EDATE(A123,1)</f>
         <v>38047</v>
@@ -6401,7 +6419,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -6426,7 +6444,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -6447,7 +6465,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -6468,7 +6486,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -6495,7 +6513,7 @@
         <v>38198</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>117</v>
@@ -6515,7 +6533,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="49"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f>EDATE(A128,1)</f>
         <v>38200</v>
@@ -6540,7 +6558,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -6565,7 +6583,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>38261</v>
@@ -6590,7 +6608,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>38292</v>
@@ -6615,7 +6633,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="7"/>
         <v>38322</v>
@@ -6640,7 +6658,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>94</v>
       </c>
@@ -6658,7 +6676,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>38353</v>
@@ -6685,7 +6703,7 @@
         <v>38362</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>124</v>
@@ -6705,7 +6723,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>38384</v>
@@ -6730,7 +6748,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A150" si="8">EDATE(A138,1)</f>
         <v>38412</v>
@@ -6755,7 +6773,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>38443</v>
@@ -6780,7 +6798,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" si="8"/>
         <v>38473</v>
@@ -6805,7 +6823,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>128</v>
@@ -6825,7 +6843,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f>EDATE(A141,1)</f>
         <v>38504</v>
@@ -6850,7 +6868,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -6877,7 +6895,7 @@
         <v>38551</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>61</v>
@@ -6899,7 +6917,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>131</v>
@@ -6919,7 +6937,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f>EDATE(A144,1)</f>
         <v>38565</v>
@@ -6944,7 +6962,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -6969,7 +6987,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="8"/>
         <v>38626</v>
@@ -6994,7 +7012,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -7019,7 +7037,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>138</v>
@@ -7041,7 +7059,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f>EDATE(A150,1)</f>
         <v>38687</v>
@@ -7066,7 +7084,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>46</v>
@@ -7086,7 +7104,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="48" t="s">
         <v>123</v>
       </c>
@@ -7104,7 +7122,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f>EDATE(A152,1)</f>
         <v>38718</v>
@@ -7129,7 +7147,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>142</v>
@@ -7149,7 +7167,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f>EDATE(A155,1)</f>
         <v>38749</v>
@@ -7174,7 +7192,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" ref="A158:A169" si="9">EDATE(A157,1)</f>
         <v>38777</v>
@@ -7199,7 +7217,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>145</v>
@@ -7219,7 +7237,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>38808</v>
@@ -7244,7 +7262,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="9"/>
         <v>38838</v>
@@ -7269,7 +7287,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -7294,7 +7312,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>66</v>
@@ -7314,7 +7332,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f>EDATE(A162,1)</f>
         <v>38899</v>
@@ -7339,7 +7357,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f t="shared" si="9"/>
         <v>38930</v>
@@ -7364,7 +7382,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="9"/>
         <v>38961</v>
@@ -7389,7 +7407,7 @@
       <c r="J166" s="12"/>
       <c r="K166" s="15"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -7414,7 +7432,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -7439,7 +7457,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="9"/>
         <v>39052</v>
@@ -7464,7 +7482,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>154</v>
@@ -7484,7 +7502,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="48" t="s">
         <v>137</v>
       </c>
@@ -7502,7 +7520,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A169,1)</f>
         <v>39083</v>
@@ -7527,7 +7545,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f>EDATE(A172,1)</f>
         <v>39114</v>
@@ -7554,7 +7572,7 @@
         <v>39139</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>156</v>
@@ -7574,7 +7592,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>39142</v>
@@ -7599,7 +7617,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>65</v>
@@ -7621,7 +7639,7 @@
         <v>39175</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>66</v>
@@ -7641,7 +7659,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>159</v>
@@ -7661,7 +7679,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f>EDATE(A175,1)</f>
         <v>39173</v>
@@ -7686,7 +7704,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" ref="A180:A183" si="10">EDATE(A179,1)</f>
         <v>39203</v>
@@ -7713,7 +7731,7 @@
         <v>39227</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>161</v>
@@ -7733,7 +7751,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f>EDATE(A180,1)</f>
         <v>39234</v>
@@ -7758,7 +7776,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="10"/>
         <v>39264</v>
@@ -7785,7 +7803,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>164</v>
@@ -7805,7 +7823,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>39295</v>
@@ -7832,7 +7850,7 @@
         <v>39325</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>167</v>
@@ -7852,7 +7870,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="49"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f>EDATE(A185,1)</f>
         <v>39326</v>
@@ -7877,7 +7895,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f>EDATE(A187,1)</f>
         <v>39356</v>
@@ -7904,7 +7922,7 @@
         <v>39360</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>165</v>
@@ -7924,7 +7942,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A188,1)</f>
         <v>39387</v>
@@ -7951,7 +7969,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>168</v>
@@ -7971,7 +7989,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f>EDATE(A190,1)</f>
         <v>39417</v>
@@ -7996,7 +8014,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>171</v>
@@ -8016,7 +8034,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="48" t="s">
         <v>153</v>
       </c>
@@ -8034,7 +8052,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A192,1)</f>
         <v>39448</v>
@@ -8061,7 +8079,7 @@
         <v>39456</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>172</v>
@@ -8081,7 +8099,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="49"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A195,1)</f>
         <v>39479</v>
@@ -8102,7 +8120,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" ref="A198:A213" si="11">EDATE(A197,1)</f>
         <v>39508</v>
@@ -8123,7 +8141,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="11"/>
         <v>39539</v>
@@ -8144,7 +8162,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="11"/>
         <v>39569</v>
@@ -8165,7 +8183,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -8192,7 +8210,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>80</v>
@@ -8212,7 +8230,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f>EDATE(A201,1)</f>
         <v>39630</v>
@@ -8239,7 +8257,7 @@
         <v>39633</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>65</v>
@@ -8261,7 +8279,7 @@
         <v>39650</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>174</v>
@@ -8281,7 +8299,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="49"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f>EDATE(A203,1)</f>
         <v>39661</v>
@@ -8308,7 +8326,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>61</v>
@@ -8328,7 +8346,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>175</v>
@@ -8348,7 +8366,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f>EDATE(A206,1)</f>
         <v>39692</v>
@@ -8375,7 +8393,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>177</v>
@@ -8395,7 +8413,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A209,1)</f>
         <v>39722</v>
@@ -8416,7 +8434,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -8437,7 +8455,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="11"/>
         <v>39783</v>
@@ -8462,7 +8480,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="48" t="s">
         <v>170</v>
       </c>
@@ -8480,7 +8498,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>39814</v>
@@ -8501,7 +8519,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f>EDATE(A215,1)</f>
         <v>39845</v>
@@ -8522,7 +8540,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f t="shared" ref="A217:A226" si="12">EDATE(A216,1)</f>
         <v>39873</v>
@@ -8543,7 +8561,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" si="12"/>
         <v>39904</v>
@@ -8564,7 +8582,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -8585,7 +8603,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="12"/>
         <v>39965</v>
@@ -8610,7 +8628,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -8631,7 +8649,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -8658,7 +8676,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -8679,7 +8697,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="12"/>
         <v>40087</v>
@@ -8700,7 +8718,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="12"/>
         <v>40118</v>
@@ -8721,7 +8739,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="12"/>
         <v>40148</v>
@@ -8746,7 +8764,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="48" t="s">
         <v>179</v>
       </c>
@@ -8764,7 +8782,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>40179</v>
@@ -8785,7 +8803,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A228,1)</f>
         <v>40210</v>
@@ -8806,7 +8824,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" ref="A230:A239" si="13">EDATE(A229,1)</f>
         <v>40238</v>
@@ -8827,7 +8845,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="13"/>
         <v>40269</v>
@@ -8848,7 +8866,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -8869,7 +8887,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="13"/>
         <v>40330</v>
@@ -8890,7 +8908,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" si="13"/>
         <v>40360</v>
@@ -8911,7 +8929,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -8932,7 +8950,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="13"/>
         <v>40422</v>
@@ -8953,7 +8971,7 @@
       <c r="J236" s="12"/>
       <c r="K236" s="15"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="13"/>
         <v>40452</v>
@@ -8974,7 +8992,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f>EDATE(A237,1)</f>
         <v>40483</v>
@@ -8995,7 +9013,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="13"/>
         <v>40513</v>
@@ -9020,7 +9038,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="48" t="s">
         <v>184</v>
       </c>
@@ -9038,7 +9056,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f>EDATE(A239,1)</f>
         <v>40544</v>
@@ -9059,7 +9077,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f>EDATE(A241,1)</f>
         <v>40575</v>
@@ -9080,7 +9098,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" ref="A243:A251" si="14">EDATE(A242,1)</f>
         <v>40603</v>
@@ -9101,7 +9119,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="14"/>
         <v>40634</v>
@@ -9122,7 +9140,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="14"/>
         <v>40664</v>
@@ -9143,7 +9161,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" si="14"/>
         <v>40695</v>
@@ -9164,7 +9182,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="14"/>
         <v>40725</v>
@@ -9185,7 +9203,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -9206,7 +9224,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -9227,7 +9245,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="14"/>
         <v>40817</v>
@@ -9248,7 +9266,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="14"/>
         <v>40848</v>
@@ -9275,7 +9293,7 @@
         <v>40872</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>65</v>
@@ -9297,7 +9315,7 @@
         <v>40876</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>186</v>
@@ -9317,7 +9335,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A251,1)</f>
         <v>40878</v>
@@ -9344,7 +9362,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>46</v>
@@ -9364,7 +9382,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="48" t="s">
         <v>185</v>
       </c>
@@ -9382,7 +9400,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A254,1)</f>
         <v>40909</v>
@@ -9407,7 +9425,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f>EDATE(A257,1)</f>
         <v>40940</v>
@@ -9432,7 +9450,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>110</v>
@@ -9454,7 +9472,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>190</v>
@@ -9474,7 +9492,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f>EDATE(A258,1)</f>
         <v>40969</v>
@@ -9501,7 +9519,7 @@
         <v>40981</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>191</v>
@@ -9521,7 +9539,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f>EDATE(A261,1)</f>
         <v>41000</v>
@@ -9546,7 +9564,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f t="shared" ref="A264:A271" si="15">EDATE(A263,1)</f>
         <v>41030</v>
@@ -9573,7 +9591,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>193</v>
@@ -9593,7 +9611,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f>EDATE(A264,1)</f>
         <v>41061</v>
@@ -9618,7 +9636,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>41091</v>
@@ -9643,7 +9661,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" si="15"/>
         <v>41122</v>
@@ -9670,7 +9688,7 @@
         <v>41135</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>196</v>
@@ -9690,7 +9708,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>41153</v>
@@ -9715,7 +9733,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -9742,7 +9760,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>201</v>
@@ -9762,7 +9780,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f>EDATE(A271,1)</f>
         <v>41214</v>
@@ -9789,7 +9807,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>61</v>
@@ -9811,7 +9829,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>41244</v>
@@ -9838,7 +9856,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>110</v>
@@ -9858,7 +9876,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>46</v>
@@ -9878,7 +9896,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>206</v>
@@ -9898,7 +9916,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="48" t="s">
         <v>188</v>
       </c>
@@ -9916,7 +9934,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A275,1)</f>
         <v>41275</v>
@@ -9941,7 +9959,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>41306</v>
@@ -9968,7 +9986,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>65</v>
@@ -9990,7 +10008,7 @@
         <v>41309</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>65</v>
@@ -10012,7 +10030,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>208</v>
@@ -10032,7 +10050,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f>EDATE(A281,1)</f>
         <v>41334</v>
@@ -10059,7 +10077,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f t="shared" ref="A286:A296" si="16">EDATE(A285,1)</f>
         <v>41365</v>
@@ -10086,7 +10104,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>66</v>
@@ -10106,7 +10124,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>132</v>
@@ -10126,7 +10144,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>41395</v>
@@ -10151,7 +10169,7 @@
       <c r="J289" s="12"/>
       <c r="K289" s="15"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="16"/>
         <v>41426</v>
@@ -10176,7 +10194,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="16"/>
         <v>41456</v>
@@ -10201,7 +10219,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="16"/>
         <v>41487</v>
@@ -10228,7 +10246,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>216</v>
@@ -10248,7 +10266,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A292,1)</f>
         <v>41518</v>
@@ -10273,7 +10291,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A294,1)</f>
         <v>41548</v>
@@ -10298,7 +10316,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="16"/>
         <v>41579</v>
@@ -10325,7 +10343,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>219</v>
@@ -10345,7 +10363,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A296,1)</f>
         <v>41609</v>
@@ -10370,7 +10388,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="48" t="s">
         <v>205</v>
       </c>
@@ -10388,7 +10406,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>41640</v>
@@ -10415,7 +10433,7 @@
         <v>41653</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f>EDATE(A300,1)</f>
         <v>41671</v>
@@ -10442,7 +10460,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>66</v>
@@ -10462,7 +10480,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f>EDATE(A301,1)</f>
         <v>41699</v>
@@ -10483,7 +10501,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" ref="A304:A312" si="17">EDATE(A303,1)</f>
         <v>41730</v>
@@ -10508,7 +10526,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -10529,7 +10547,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f t="shared" si="17"/>
         <v>41791</v>
@@ -10550,7 +10568,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" si="17"/>
         <v>41821</v>
@@ -10571,7 +10589,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -10592,7 +10610,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="17"/>
         <v>41883</v>
@@ -10619,7 +10637,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -10640,7 +10658,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f t="shared" si="17"/>
         <v>41944</v>
@@ -10667,7 +10685,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f t="shared" si="17"/>
         <v>41974</v>
@@ -10692,7 +10710,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="48" t="s">
         <v>220</v>
       </c>
@@ -10710,7 +10728,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f>EDATE(A312,1)</f>
         <v>42005</v>
@@ -10731,7 +10749,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A314,1)</f>
         <v>42036</v>
@@ -10752,7 +10770,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A324" si="18">EDATE(A315,1)</f>
         <v>42064</v>
@@ -10773,7 +10791,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="18"/>
         <v>42095</v>
@@ -10800,7 +10818,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="18"/>
         <v>42125</v>
@@ -10821,7 +10839,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="18"/>
         <v>42156</v>
@@ -10842,7 +10860,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -10863,7 +10881,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -10884,7 +10902,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="18"/>
         <v>42248</v>
@@ -10905,7 +10923,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="18"/>
         <v>42278</v>
@@ -10926,7 +10944,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -10947,7 +10965,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A324,1)</f>
         <v>42339</v>
@@ -10972,7 +10990,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="48" t="s">
         <v>229</v>
       </c>
@@ -10990,7 +11008,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A325,1)</f>
         <v>42370</v>
@@ -11011,7 +11029,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f>EDATE(A327,1)</f>
         <v>42401</v>
@@ -11038,7 +11056,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" ref="A329:A338" si="19">EDATE(A328,1)</f>
         <v>42430</v>
@@ -11059,7 +11077,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="19"/>
         <v>42461</v>
@@ -11080,7 +11098,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f t="shared" si="19"/>
         <v>42491</v>
@@ -11105,7 +11123,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -11126,7 +11144,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -11147,7 +11165,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -11174,7 +11192,7 @@
         <v>42594</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f>EDATE(A334,1)</f>
         <v>42614</v>
@@ -11195,7 +11213,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -11216,7 +11234,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A336,1)</f>
         <v>42675</v>
@@ -11243,7 +11261,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -11268,7 +11286,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="48" t="s">
         <v>234</v>
       </c>
@@ -11286,7 +11304,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A338,1)</f>
         <v>42736</v>
@@ -11307,7 +11325,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A340,1)</f>
         <v>42767</v>
@@ -11328,7 +11346,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A349" si="20">EDATE(A341,1)</f>
         <v>42795</v>
@@ -11349,7 +11367,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="20"/>
         <v>42826</v>
@@ -11370,7 +11388,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -11395,7 +11413,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="20"/>
         <v>42887</v>
@@ -11416,7 +11434,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f>EDATE(A345,1)</f>
         <v>42917</v>
@@ -11443,7 +11461,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="20"/>
         <v>42948</v>
@@ -11464,7 +11482,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" si="20"/>
         <v>42979</v>
@@ -11485,7 +11503,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="20"/>
         <v>43009</v>
@@ -11506,7 +11524,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f>EDATE(A349,1)</f>
         <v>43040</v>
@@ -11533,7 +11551,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>50</v>
@@ -11555,7 +11573,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>65</v>
@@ -11577,7 +11595,7 @@
         <v>43067</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f>EDATE(A350,1)</f>
         <v>43070</v>
@@ -11598,7 +11616,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="48" t="s">
         <v>235</v>
       </c>
@@ -11616,7 +11634,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f>EDATE(A353,1)</f>
         <v>43101</v>
@@ -11637,7 +11655,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f>EDATE(A355,1)</f>
         <v>43132</v>
@@ -11658,7 +11676,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f t="shared" ref="A357:A365" si="21">EDATE(A356,1)</f>
         <v>43160</v>
@@ -11679,7 +11697,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f t="shared" si="21"/>
         <v>43191</v>
@@ -11700,7 +11718,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f t="shared" si="21"/>
         <v>43221</v>
@@ -11725,7 +11743,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -11752,7 +11770,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f t="shared" si="21"/>
         <v>43282</v>
@@ -11779,7 +11797,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f t="shared" si="21"/>
         <v>43313</v>
@@ -11806,7 +11824,7 @@
         <v>43332</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -11827,7 +11845,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="21"/>
         <v>43374</v>
@@ -11854,7 +11872,7 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f t="shared" si="21"/>
         <v>43405</v>
@@ -11881,7 +11899,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>110</v>
@@ -11903,7 +11921,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f>EDATE(A365,1)</f>
         <v>43435</v>
@@ -11930,7 +11948,7 @@
         <v>43461</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>46</v>
@@ -11950,7 +11968,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="48" t="s">
         <v>238</v>
       </c>
@@ -11968,7 +11986,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A367,1)</f>
         <v>43466</v>
@@ -11989,7 +12007,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f>EDATE(A370,1)</f>
         <v>43497</v>
@@ -12010,7 +12028,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" ref="A372:A381" si="22">EDATE(A371,1)</f>
         <v>43525</v>
@@ -12031,7 +12049,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="22"/>
         <v>43556</v>
@@ -12052,7 +12070,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -12077,7 +12095,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="22"/>
         <v>43617</v>
@@ -12098,7 +12116,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f t="shared" si="22"/>
         <v>43647</v>
@@ -12119,7 +12137,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A376,1)</f>
         <v>43678</v>
@@ -12140,7 +12158,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" si="22"/>
         <v>43709</v>
@@ -12167,7 +12185,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>50</v>
@@ -12189,7 +12207,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f>EDATE(A378,1)</f>
         <v>43739</v>
@@ -12210,7 +12228,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -12231,7 +12249,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f>EDATE(A381,1)</f>
         <v>43800</v>
@@ -12252,7 +12270,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="48" t="s">
         <v>243</v>
       </c>
@@ -12270,7 +12288,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f>EDATE(A382,1)</f>
         <v>43831</v>
@@ -12291,7 +12309,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f>EDATE(A384,1)</f>
         <v>43862</v>
@@ -12312,7 +12330,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f t="shared" ref="A386:A395" si="23">EDATE(A385,1)</f>
         <v>43891</v>
@@ -12339,7 +12357,7 @@
         <v>43533</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="23"/>
         <v>43922</v>
@@ -12360,7 +12378,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="23"/>
         <v>43952</v>
@@ -12381,7 +12399,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f t="shared" si="23"/>
         <v>43983</v>
@@ -12402,7 +12420,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="23"/>
         <v>44013</v>
@@ -12429,7 +12447,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A390,1)</f>
         <v>44044</v>
@@ -12450,7 +12468,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" si="23"/>
         <v>44075</v>
@@ -12471,7 +12489,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f t="shared" si="23"/>
         <v>44105</v>
@@ -12492,7 +12510,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f>EDATE(A393,1)</f>
         <v>44136</v>
@@ -12513,7 +12531,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f t="shared" si="23"/>
         <v>44166</v>
@@ -12538,7 +12556,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="53" t="s">
         <v>247</v>
       </c>
@@ -12556,7 +12574,7 @@
       <c r="J396" s="12"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>44197</v>
@@ -12577,7 +12595,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f>EDATE(A397,1)</f>
         <v>44228</v>
@@ -12598,7 +12616,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f t="shared" ref="A399:A408" si="24">EDATE(A398,1)</f>
         <v>44256</v>
@@ -12619,7 +12637,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f t="shared" si="24"/>
         <v>44287</v>
@@ -12640,7 +12658,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f t="shared" si="24"/>
         <v>44317</v>
@@ -12661,7 +12679,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f t="shared" si="24"/>
         <v>44348</v>
@@ -12682,7 +12700,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" si="24"/>
         <v>44378</v>
@@ -12703,7 +12721,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f t="shared" si="24"/>
         <v>44409</v>
@@ -12724,7 +12742,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" si="24"/>
         <v>44440</v>
@@ -12745,7 +12763,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f t="shared" si="24"/>
         <v>44470</v>
@@ -12766,7 +12784,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f t="shared" si="24"/>
         <v>44501</v>
@@ -12787,7 +12805,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" si="24"/>
         <v>44531</v>
@@ -12812,7 +12830,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="48" t="s">
         <v>249</v>
       </c>
@@ -12830,7 +12848,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>44562</v>
@@ -12851,7 +12869,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f>EDATE(A410,1)</f>
         <v>44593</v>
@@ -12872,7 +12890,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f t="shared" ref="A412:A415" si="25">EDATE(A411,1)</f>
         <v>44621</v>
@@ -12893,18 +12911,20 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f t="shared" si="25"/>
         <v>44652</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C413" s="13">
         <v>1.25</v>
       </c>
-      <c r="D413" s="43"/>
+      <c r="D413" s="43">
+        <v>1</v>
+      </c>
       <c r="E413" s="50"/>
       <c r="F413" s="15"/>
       <c r="G413" s="13">
@@ -12918,7 +12938,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f t="shared" si="25"/>
         <v>44682</v>
@@ -12939,7 +12959,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f t="shared" si="25"/>
         <v>44713</v>
@@ -12964,7 +12984,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>61</v>
@@ -12986,7 +13006,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>44743</v>
       </c>
@@ -13006,7 +13026,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>44774</v>
       </c>
@@ -13026,7 +13046,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>44805</v>
       </c>
@@ -13046,11 +13066,13 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>44835</v>
       </c>
-      <c r="B420" s="20"/>
+      <c r="B420" s="20" t="s">
+        <v>255</v>
+      </c>
       <c r="C420" s="13">
         <v>1.25</v>
       </c>
@@ -13064,9 +13086,11 @@
       <c r="H420" s="39"/>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="20"/>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K420" s="51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>44866</v>
       </c>
@@ -13086,15 +13110,19 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>44896</v>
       </c>
-      <c r="B422" s="20"/>
+      <c r="B422" s="20" t="s">
+        <v>257</v>
+      </c>
       <c r="C422" s="13">
         <v>1.25</v>
       </c>
-      <c r="D422" s="39"/>
+      <c r="D422" s="39">
+        <v>4</v>
+      </c>
       <c r="E422" s="9"/>
       <c r="F422" s="20"/>
       <c r="G422" s="13">
@@ -13104,9 +13132,11 @@
       <c r="H422" s="39"/>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="20"/>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K422" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="48" t="s">
         <v>252</v>
       </c>
@@ -13124,7 +13154,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>44927</v>
       </c>
@@ -13144,11 +13174,13 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>44958</v>
       </c>
-      <c r="B425" s="20"/>
+      <c r="B425" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C425" s="13">
         <v>1.25</v>
       </c>
@@ -13159,12 +13191,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H425" s="39"/>
+      <c r="H425" s="39">
+        <v>2</v>
+      </c>
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
-      <c r="K425" s="20"/>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K425" s="20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>44986</v>
       </c>
@@ -13182,7 +13218,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>45017</v>
       </c>
@@ -13200,7 +13236,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>45047</v>
       </c>
@@ -13218,7 +13254,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>45078</v>
       </c>
@@ -13236,7 +13272,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>45108</v>
       </c>
@@ -13254,7 +13290,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>45139</v>
       </c>
@@ -13272,7 +13308,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>45170</v>
       </c>
@@ -13290,7 +13326,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>45200</v>
       </c>
@@ -13308,7 +13344,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>45231</v>
       </c>
@@ -13326,7 +13362,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>45261</v>
       </c>
@@ -13344,7 +13380,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>45292</v>
       </c>
@@ -13362,7 +13398,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -13378,7 +13414,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="41"/>
       <c r="B438" s="15"/>
       <c r="C438" s="42"/>
@@ -13409,10 +13445,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13435,7 +13471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -13443,21 +13479,21 @@
       <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -13470,7 +13506,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13499,7 +13535,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -13525,17 +13561,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13556,7 +13592,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13583,7 +13619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13609,7 +13645,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13635,7 +13671,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13661,7 +13697,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13687,7 +13723,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13713,7 +13749,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13739,7 +13775,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13765,7 +13801,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13785,7 +13821,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13805,7 +13841,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13825,7 +13861,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13846,7 +13882,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13867,7 +13903,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13888,7 +13924,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13909,7 +13945,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13930,7 +13966,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13951,7 +13987,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13972,7 +14008,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13993,7 +14029,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14014,7 +14050,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14035,7 +14071,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14056,7 +14092,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14077,7 +14113,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14098,7 +14134,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14119,7 +14155,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14140,7 +14176,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14161,7 +14197,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14182,7 +14218,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14203,7 +14239,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14224,7 +14260,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14245,7 +14281,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14254,7 +14290,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14263,7 +14299,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14272,7 +14308,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14281,7 +14317,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14290,7 +14326,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14299,7 +14335,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14308,7 +14344,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14317,7 +14353,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14326,7 +14362,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14335,7 +14371,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14344,7 +14380,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14353,7 +14389,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14362,7 +14398,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14371,7 +14407,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14380,7 +14416,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14389,7 +14425,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14398,7 +14434,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14407,7 +14443,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14416,7 +14452,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14425,7 +14461,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14434,7 +14470,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14443,7 +14479,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14452,7 +14488,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14461,7 +14497,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14470,7 +14506,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14479,7 +14515,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14488,7 +14524,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14497,7 +14533,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14506,7 +14542,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/DIMAPILIS, DENNIS C..xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMAPILIS, DENNIS C..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="261">
   <si>
     <t>PERIOD</t>
   </si>
@@ -814,6 +814,9 @@
   </si>
   <si>
     <t>2/7,8/2022</t>
+  </si>
+  <si>
+    <t>BDAY 5/24/2023</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1701,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1744,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1808,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1868,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1934,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +1997,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2095,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2154,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2219,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2262,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2337,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2523,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2589,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2644,7 +2647,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2713,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2769,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2844,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2887,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,7 +2953,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3006,7 +3009,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3107,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3167,7 +3170,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3613,10 +3616,10 @@
   </sheetPr>
   <dimension ref="A2:K438"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A415" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A413" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H418" sqref="H418"/>
+      <selection pane="bottomLeft" activeCell="B429" sqref="B429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,7 +3782,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>124.08999999999992</v>
+        <v>126.58999999999992</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3789,7 +3792,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>240.375</v>
+        <v>242.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13205,13 +13208,15 @@
         <v>44986</v>
       </c>
       <c r="B426" s="20"/>
-      <c r="C426" s="13"/>
+      <c r="C426" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D426" s="39"/>
       <c r="E426" s="9"/>
       <c r="F426" s="20"/>
-      <c r="G426" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G426" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H426" s="39"/>
       <c r="I426" s="9"/>
@@ -13223,13 +13228,15 @@
         <v>45017</v>
       </c>
       <c r="B427" s="20"/>
-      <c r="C427" s="13"/>
+      <c r="C427" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D427" s="39"/>
       <c r="E427" s="9"/>
       <c r="F427" s="20"/>
-      <c r="G427" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G427" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H427" s="39"/>
       <c r="I427" s="9"/>
@@ -13240,7 +13247,9 @@
       <c r="A428" s="40">
         <v>45047</v>
       </c>
-      <c r="B428" s="20"/>
+      <c r="B428" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C428" s="13"/>
       <c r="D428" s="39"/>
       <c r="E428" s="9"/>
@@ -13252,7 +13261,9 @@
       <c r="H428" s="39"/>
       <c r="I428" s="9"/>
       <c r="J428" s="11"/>
-      <c r="K428" s="20"/>
+      <c r="K428" s="20" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
